--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trento\Data_mining\data_mining\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF9F13F-0EC5-42D6-88EE-70A9C05A3BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B39983-270D-4850-B4CC-475FEB98EE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC0C1A05-58FD-41D8-ABEB-B385BD6D2333}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>Parameters</t>
   </si>
@@ -157,6 +157,108 @@
   </si>
   <si>
     <t xml:space="preserve">GENERAL </t>
+  </si>
+  <si>
+    <t>SVDpp</t>
+  </si>
+  <si>
+    <t>29.634080850345903</t>
+  </si>
+  <si>
+    <t>{'n_factors': 5, 'reg_all': 0.01}</t>
+  </si>
+  <si>
+    <t>{'n_factors': 10, 'reg_all': 0.01}</t>
+  </si>
+  <si>
+    <t>27.66329338560559</t>
+  </si>
+  <si>
+    <t>25.473137041851583</t>
+  </si>
+  <si>
+    <t>{'n_factors': 15, 'reg_all': 0.01}</t>
+  </si>
+  <si>
+    <t>19.06609711652974</t>
+  </si>
+  <si>
+    <t>{'n_factors': 50, 'reg_all': 0.01}</t>
+  </si>
+  <si>
+    <t>18.80730305119463</t>
+  </si>
+  <si>
+    <t>{'n_factors': 50, 'reg_all': 0.02}</t>
+  </si>
+  <si>
+    <t>47.235773734873014</t>
+  </si>
+  <si>
+    <t>{'n_factors': 250, 'reg_all': 0.1, 'lr_all': 0.002}</t>
+  </si>
+  <si>
+    <t>13.285859359663187</t>
+  </si>
+  <si>
+    <t>{'n_factors': 250, 'reg_all': 0.1, 'lr_all': 0.001}</t>
+  </si>
+  <si>
+    <t>12.741418990354159</t>
+  </si>
+  <si>
+    <t>12.690695805202518</t>
+  </si>
+  <si>
+    <t>{'n_factors': 250, 'reg_all': 0.1, 'lr_all': 0.001, 'init_std_dev': 0.2}</t>
+  </si>
+  <si>
+    <t>20.517671557359783</t>
+  </si>
+  <si>
+    <t>{'n_factors': 250, 'reg_all': 0.1, 'lr_all': 0.0001}</t>
+  </si>
+  <si>
+    <t>{'n_factors': 500, 'reg_all': 0.1, 'lr_all': 0.001}</t>
+  </si>
+  <si>
+    <t>12.650098562213282</t>
+  </si>
+  <si>
+    <t>13.26189855786331</t>
+  </si>
+  <si>
+    <t>{'n_factors': 250, 'reg_all': 0.5, 'lr_all': 0.001}</t>
+  </si>
+  <si>
+    <t>{'n_factors': 250, 'reg_all': 0.1, 'lr_all': 0.001, 'n_epochs': 50}</t>
+  </si>
+  <si>
+    <t>12.520503563917606</t>
+  </si>
+  <si>
+    <t>14.901781877084034</t>
+  </si>
+  <si>
+    <t>{'n_factors': 250, 'reg_all': 0.5, 'lr_all': 0.0001, 'n_epochs': 50}</t>
+  </si>
+  <si>
+    <t>{'sim_options': {'k': 2, 'name': 'cosine', 'min_support': 30, 'user_based': False}, 'bsl_options': {'method': 'sgd', 'n_epochs': 20}}</t>
+  </si>
+  <si>
+    <t>26.733015057794592</t>
+  </si>
+  <si>
+    <t>24.14319250658918</t>
+  </si>
+  <si>
+    <t>{'sim_options': {'k': 2, 'name': 'cosine', 'min_support': 100, 'user_based': False}, 'bsl_options': {'method': 'sgd', 'n_epochs': 40}}</t>
+  </si>
+  <si>
+    <t>19.6262</t>
+  </si>
+  <si>
+    <t>19.6502</t>
   </si>
 </sst>
 </file>
@@ -508,15 +610,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADEA3F2-E888-4361-A43A-6FCD88A9D9E7}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="111.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -779,6 +882,188 @@
         <v>22</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trento\Data_mining\data_mining\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B39983-270D-4850-B4CC-475FEB98EE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA171CE4-FE28-4D0D-B66F-C9DC7ACB0F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC0C1A05-58FD-41D8-ABEB-B385BD6D2333}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
   <si>
     <t>Parameters</t>
   </si>
@@ -255,10 +255,115 @@
     <t>{'sim_options': {'k': 2, 'name': 'cosine', 'min_support': 100, 'user_based': False}, 'bsl_options': {'method': 'sgd', 'n_epochs': 40}}</t>
   </si>
   <si>
-    <t>19.6262</t>
-  </si>
-  <si>
-    <t>19.6502</t>
+    <t>12.2752</t>
+  </si>
+  <si>
+    <t>{'n_factors': 250, 'reg_all': 0.1, 'lr_all': 0.001, 'init_mean': 0}</t>
+  </si>
+  <si>
+    <t>12.743729810421431</t>
+  </si>
+  <si>
+    <t>{'n_factors': 250, 'reg_all': 0.1, 'lr_all': 0.001, 'biased': False}</t>
+  </si>
+  <si>
+    <t>15.349594214361337</t>
+  </si>
+  <si>
+    <t>34.19911510023629</t>
+  </si>
+  <si>
+    <t>34.335831167113575</t>
+  </si>
+  <si>
+    <t>{'n_factors': 750, 'reg_all': 0.1, 'lr_all': 0.001}</t>
+  </si>
+  <si>
+    <t>{'n_factors': 750, 'reg_all': 0.5, 'lr_all': 0.001}</t>
+  </si>
+  <si>
+    <t>34.33751864378103</t>
+  </si>
+  <si>
+    <t>{'n_factors': 50, 'reg_all': 0.1, 'lr_all': 0.0001}</t>
+  </si>
+  <si>
+    <t>33.81477706650411</t>
+  </si>
+  <si>
+    <t>33.815358127533685</t>
+  </si>
+  <si>
+    <t>{'n_factors': 10, 'reg_all': 0.1, 'lr_all': 0.0001}</t>
+  </si>
+  <si>
+    <t>34.88793883354903</t>
+  </si>
+  <si>
+    <t>{'sim_options': {'k': 2, 'name': 'cosine', 'min_support': 30, 'user_based': False}}</t>
+  </si>
+  <si>
+    <t>42.89536289694128</t>
+  </si>
+  <si>
+    <t>{'n_cltr_u': 10, 'n_cltr_i': 10}</t>
+  </si>
+  <si>
+    <t>CoClustering</t>
+  </si>
+  <si>
+    <t>38.096905054321894</t>
+  </si>
+  <si>
+    <t>SlopeOne</t>
+  </si>
+  <si>
+    <t>33.81523033086046</t>
+  </si>
+  <si>
+    <t>{'n_factors': 30, 'reg_all': 0.5, 'lr_all': 0.0001}</t>
+  </si>
+  <si>
+    <t>NMF</t>
+  </si>
+  <si>
+    <t>{'sim_options': {'k': 2, 'name': 'cosine', 'min_support': 10, 'user_based': False}, 'bsl_options': {'method': 'als', 'n_epochs': 20}}</t>
+  </si>
+  <si>
+    <t>34.91520384614675</t>
+  </si>
+  <si>
+    <t>33.812781005549326</t>
+  </si>
+  <si>
+    <t>{'n_factors': 10, 'reg_all': 0.01, 'lr_all': 0.0001, 'init_std_dev': 0.3}</t>
+  </si>
+  <si>
+    <t>{'n_factors': 10, 'reg_all': 0.001, 'lr_all': 0.0001, 'init_std_dev': 0.3}</t>
+  </si>
+  <si>
+    <t>33.815209134000085</t>
+  </si>
+  <si>
+    <t>41.23680738195581</t>
+  </si>
+  <si>
+    <t>{'sim_options': {'k': 2, 'name': 'cosine', 'min_support': 10, 'user_based': False}}</t>
+  </si>
+  <si>
+    <t>41.1668062634143</t>
+  </si>
+  <si>
+    <t>{'sim_options': {'k': 1, 'name': 'cosine', 'min_support': 10, 'user_based': False}}</t>
+  </si>
+  <si>
+    <t>33.75050910367686</t>
+  </si>
+  <si>
+    <t>33.74801049962127</t>
+  </si>
+  <si>
+    <t>{'n_factors': 10, 'reg_all': 0.001, 'lr_all': 1e-05, 'init_std_dev': 0.2}</t>
   </si>
 </sst>
 </file>
@@ -610,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADEA3F2-E888-4361-A43A-6FCD88A9D9E7}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,9 +1110,6 @@
       <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="G29" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1062,6 +1164,204 @@
       </c>
       <c r="C34" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trento\Data_mining\data_mining\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA171CE4-FE28-4D0D-B66F-C9DC7ACB0F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99F171-930A-4D88-BBFB-5FC300BD3605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC0C1A05-58FD-41D8-ABEB-B385BD6D2333}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="119">
   <si>
     <t>Parameters</t>
   </si>
@@ -364,6 +364,33 @@
   </si>
   <si>
     <t>{'n_factors': 10, 'reg_all': 0.001, 'lr_all': 1e-05, 'init_std_dev': 0.2}</t>
+  </si>
+  <si>
+    <t>{'n_factors': 5, 'reg_all': 0.01, 'lr_all': 1e-05, 'init_std_dev': 0.2}</t>
+  </si>
+  <si>
+    <t>33.81469116864811</t>
+  </si>
+  <si>
+    <t>43.388810985109544</t>
+  </si>
+  <si>
+    <t>{'n_cltr_u': 20, 'n_cltr_i': 20}</t>
+  </si>
+  <si>
+    <t>{'n_cltr_u': 1, 'n_cltr_i': 1}</t>
+  </si>
+  <si>
+    <t>41.600838806015304</t>
+  </si>
+  <si>
+    <t>35.6182</t>
+  </si>
+  <si>
+    <t>34.83980841731907</t>
+  </si>
+  <si>
+    <t>33.7726</t>
   </si>
 </sst>
 </file>
@@ -715,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADEA3F2-E888-4361-A43A-6FCD88A9D9E7}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,29 +927,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
@@ -930,13 +943,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -944,13 +957,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
@@ -958,41 +971,44 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
         <v>5</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="G17">
-        <v>19.46</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>19.46</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1000,10 +1016,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -1011,10 +1027,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -1022,10 +1038,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -1033,10 +1049,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -1044,32 +1060,32 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -1077,35 +1093,35 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
@@ -1113,10 +1129,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
@@ -1124,10 +1140,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -1135,10 +1151,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
@@ -1146,21 +1162,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1168,43 +1184,43 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>76</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>77</v>
       </c>
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
         <v>22</v>
@@ -1212,10 +1228,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
         <v>22</v>
@@ -1223,10 +1239,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
@@ -1234,10 +1250,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
@@ -1245,46 +1261,46 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1295,26 +1311,26 @@
         <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
         <v>22</v>
@@ -1322,46 +1338,110 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
         <v>22</v>
-      </c>
-      <c r="D52" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>109</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trento\Data_mining\data_mining\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99F171-930A-4D88-BBFB-5FC300BD3605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EAB188-DB02-4E19-B54C-8181997BB6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC0C1A05-58FD-41D8-ABEB-B385BD6D2333}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DC0C1A05-58FD-41D8-ABEB-B385BD6D2333}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="RMSE" sheetId="1" r:id="rId1"/>
+    <sheet name="TOP K" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="133">
   <si>
     <t>Parameters</t>
   </si>
@@ -391,6 +392,48 @@
   </si>
   <si>
     <t>33.7726</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>TEST CASES</t>
+  </si>
+  <si>
+    <t>0.145</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>0.132</t>
+  </si>
+  <si>
+    <t>0.114</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>n_factors =100, reg_all= 0.1, lr_all= 0.1,init_std_dev=0.2</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>n_factors =500, reg_all= 0.1, lr_all= 0.1,init_std_dev=0.2</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>n_factors =1000</t>
+  </si>
+  <si>
+    <t>n_factors =5</t>
   </si>
 </sst>
 </file>
@@ -744,9 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADEA3F2-E888-4361-A43A-6FCD88A9D9E7}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1448,4 +1489,192 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E839009A-F56B-4F87-826D-600FE195DB11}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>0.126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trento\Data_mining\data_mining\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EAB188-DB02-4E19-B54C-8181997BB6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A596489E-AC1B-4A4B-95A8-46933B56420F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DC0C1A05-58FD-41D8-ABEB-B385BD6D2333}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="160">
   <si>
     <t>Parameters</t>
   </si>
@@ -434,6 +434,87 @@
   </si>
   <si>
     <t>n_factors =5</t>
+  </si>
+  <si>
+    <t>SPLIT</t>
+  </si>
+  <si>
+    <t>RANDOM</t>
+  </si>
+  <si>
+    <t>LOGIC</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>0.0981</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>0.0968</t>
+  </si>
+  <si>
+    <t>n_factors =100</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>n_factors=5</t>
+  </si>
+  <si>
+    <t>0.09211618257261411</t>
+  </si>
+  <si>
+    <t>0.0941860465116279</t>
+  </si>
+  <si>
+    <t>name=cosine</t>
+  </si>
+  <si>
+    <t>KNNwithZscore</t>
+  </si>
+  <si>
+    <t>name='cosine',user_based=False</t>
+  </si>
+  <si>
+    <t>name='cosine',user_based=False,k=75</t>
+  </si>
+  <si>
+    <t>name='pearson',user_based=False,k=75</t>
+  </si>
+  <si>
+    <t>0.09883720930232558</t>
+  </si>
+  <si>
+    <t>KNNWithMeansv</t>
+  </si>
+  <si>
+    <t>0.0998</t>
+  </si>
+  <si>
+    <t>n_factors =100, reg_all= 0.1, lr_all= 0.1</t>
+  </si>
+  <si>
+    <t>0.0956</t>
+  </si>
+  <si>
+    <t>0.1002</t>
+  </si>
+  <si>
+    <t>n_factors =500</t>
+  </si>
+  <si>
+    <t>0.0996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reg_all= 0.001, lr_all= 0.0005</t>
+  </si>
+  <si>
+    <t>0.1082</t>
   </si>
 </sst>
 </file>
@@ -1493,18 +1574,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E839009A-F56B-4F87-826D-600FE195DB11}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1520,8 +1604,11 @@
       <c r="E1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1537,8 +1624,11 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1554,8 +1644,11 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1571,8 +1664,11 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1588,8 +1684,11 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1704,11 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -1622,8 +1724,11 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -1639,8 +1744,11 @@
       <c r="E8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -1656,8 +1764,11 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -1672,6 +1783,369 @@
       </c>
       <c r="E10" t="s">
         <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>10000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>5000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>5000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trento\Data_mining\data_mining\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A596489E-AC1B-4A4B-95A8-46933B56420F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C31449-2E01-4EC6-B712-510AC09EFF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DC0C1A05-58FD-41D8-ABEB-B385BD6D2333}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="163">
   <si>
     <t>Parameters</t>
   </si>
@@ -115,9 +115,6 @@
     <t>34.661473230817116</t>
   </si>
   <si>
-    <t>KIND/THERAPY</t>
-  </si>
-  <si>
     <t>35.929341150730856</t>
   </si>
   <si>
@@ -328,9 +325,6 @@
     <t>NMF</t>
   </si>
   <si>
-    <t>{'sim_options': {'k': 2, 'name': 'cosine', 'min_support': 10, 'user_based': False}, 'bsl_options': {'method': 'als', 'n_epochs': 20}}</t>
-  </si>
-  <si>
     <t>34.91520384614675</t>
   </si>
   <si>
@@ -515,6 +509,21 @@
   </si>
   <si>
     <t>0.1082</t>
+  </si>
+  <si>
+    <t>0.09709302325581395</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>USER|CON/THERAPY</t>
+  </si>
+  <si>
+    <t>USER|THERAPY</t>
+  </si>
+  <si>
+    <t>ERROR is a matrice like USER|CON/THERAPY but with much more ratings due to a mistake</t>
   </si>
 </sst>
 </file>
@@ -866,9 +875,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADEA3F2-E888-4361-A43A-6FCD88A9D9E7}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -876,9 +887,10 @@
     <col min="2" max="2" width="100.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -908,8 +920,11 @@
       <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -922,8 +937,11 @@
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -936,8 +954,11 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -950,8 +971,11 @@
       <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -964,8 +988,11 @@
       <c r="D6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -978,8 +1005,11 @@
       <c r="D7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -992,8 +1022,11 @@
       <c r="D8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1006,11 +1039,11 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1023,8 +1056,11 @@
       <c r="D10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1037,19 +1073,33 @@
       <c r="D11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1059,50 +1109,65 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="H14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
+      <c r="D16">
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1110,7 +1175,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -1119,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="G18">
         <v>19.46</v>
@@ -1127,443 +1192,677 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
       <c r="C21" t="s">
         <v>22</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
       <c r="C26" t="s">
         <v>22</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
       <c r="C27" t="s">
         <v>22</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>159</v>
+      </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
       <c r="C30" t="s">
         <v>22</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
         <v>74</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>75</v>
       </c>
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
         <v>77</v>
       </c>
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
         <v>78</v>
       </c>
-      <c r="C41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>80</v>
       </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>81</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>82</v>
       </c>
-      <c r="C43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>83</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
         <v>84</v>
       </c>
-      <c r="C44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
         <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
         <v>90</v>
       </c>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>92</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
         <v>95</v>
       </c>
-      <c r="B49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
         <v>97</v>
       </c>
-      <c r="B51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
         <v>100</v>
       </c>
-      <c r="B52" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B56" t="s">
         <v>106</v>
       </c>
-      <c r="B55" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
         <v>109</v>
       </c>
-      <c r="B56" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
         <v>110</v>
       </c>
-      <c r="B57" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
         <v>113</v>
       </c>
-      <c r="B58" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" t="s">
         <v>114</v>
-      </c>
-      <c r="B59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1574,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E839009A-F56B-4F87-826D-600FE195DB11}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,24 +1892,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
         <v>119</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1625,12 +1924,12 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1639,18 +1938,18 @@
         <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1659,18 +1958,18 @@
         <v>1000</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1679,18 +1978,18 @@
         <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1699,18 +1998,18 @@
         <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1719,18 +2018,18 @@
         <v>1000</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1739,18 +2038,18 @@
         <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -1759,18 +2058,18 @@
         <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1779,18 +2078,18 @@
         <v>1000</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1799,18 +2098,18 @@
         <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1819,18 +2118,18 @@
         <v>10000</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1839,18 +2138,18 @@
         <v>5000</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1859,18 +2158,18 @@
         <v>5000</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1879,18 +2178,18 @@
         <v>5000</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1899,18 +2198,18 @@
         <v>5000</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1919,18 +2218,18 @@
         <v>5000</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1939,18 +2238,18 @@
         <v>5000</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1959,18 +2258,18 @@
         <v>5000</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1979,18 +2278,18 @@
         <v>5000</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1999,18 +2298,18 @@
         <v>5000</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -2019,18 +2318,18 @@
         <v>5000</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -2039,18 +2338,18 @@
         <v>5000</v>
       </c>
       <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
         <v>144</v>
       </c>
-      <c r="E24" t="s">
-        <v>146</v>
-      </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -2059,18 +2358,18 @@
         <v>5000</v>
       </c>
       <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
         <v>144</v>
       </c>
-      <c r="E25" t="s">
-        <v>146</v>
-      </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -2079,18 +2378,18 @@
         <v>5000</v>
       </c>
       <c r="D26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" t="s">
         <v>144</v>
       </c>
-      <c r="E26" t="s">
-        <v>146</v>
-      </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -2099,18 +2398,18 @@
         <v>5000</v>
       </c>
       <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" t="s">
         <v>144</v>
       </c>
-      <c r="E27" t="s">
-        <v>146</v>
-      </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -2119,18 +2418,18 @@
         <v>5000</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -2139,13 +2438,53 @@
         <v>5000</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>5000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>5000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
